--- a/dongfang/编码说明.xlsx
+++ b/dongfang/编码说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t xml:space="preserve"> 7.08,</t>
   </si>
@@ -256,43 +256,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>固定2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">			"f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近1个月累计涨跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近3个月累计涨跌幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年以来累计涨幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上市时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固定2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总市值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>净流入额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流通市值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">			"f2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近3个月累计涨跌幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年以来累计涨幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近1个月累计涨跌幅</t>
+    <t>市净率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +324,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,11 +379,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,7 +691,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -742,7 +755,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -775,17 +788,17 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -799,13 +812,13 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -870,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -881,26 +894,26 @@
         <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="3"/>
@@ -913,7 +926,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -924,7 +937,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -935,7 +948,7 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -946,18 +959,18 @@
         <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -1004,11 +1017,12 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>